--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.34742968064381</v>
+        <v>6.527126666666668</v>
       </c>
       <c r="H2">
-        <v>6.34742968064381</v>
+        <v>19.58138</v>
       </c>
       <c r="I2">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="J2">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.1842207804032</v>
+        <v>85.89497033333333</v>
       </c>
       <c r="N2">
-        <v>47.1842207804032</v>
+        <v>257.684911</v>
       </c>
       <c r="O2">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="P2">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="Q2">
-        <v>299.4985234395817</v>
+        <v>560.6473513952423</v>
       </c>
       <c r="R2">
-        <v>299.4985234395817</v>
+        <v>5045.82616255718</v>
       </c>
       <c r="S2">
-        <v>0.146816521452877</v>
+        <v>0.1672120837025557</v>
       </c>
       <c r="T2">
-        <v>0.146816521452877</v>
+        <v>0.1672120837025557</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.34742968064381</v>
+        <v>6.527126666666668</v>
       </c>
       <c r="H3">
-        <v>6.34742968064381</v>
+        <v>19.58138</v>
       </c>
       <c r="I3">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="J3">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.69952953201786</v>
+        <v>1.726772333333333</v>
       </c>
       <c r="N3">
-        <v>1.69952953201786</v>
+        <v>5.180317</v>
       </c>
       <c r="O3">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="P3">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="Q3">
-        <v>10.78764419466085</v>
+        <v>11.27086174416222</v>
       </c>
       <c r="R3">
-        <v>10.78764419466085</v>
+        <v>101.43775569746</v>
       </c>
       <c r="S3">
-        <v>0.005288187658297193</v>
+        <v>0.003361514636026834</v>
       </c>
       <c r="T3">
-        <v>0.005288187658297193</v>
+        <v>0.003361514636026834</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.34742968064381</v>
+        <v>6.527126666666668</v>
       </c>
       <c r="H4">
-        <v>6.34742968064381</v>
+        <v>19.58138</v>
       </c>
       <c r="I4">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="J4">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.2244610039903</v>
+        <v>18.21376166666667</v>
       </c>
       <c r="N4">
-        <v>16.2244610039903</v>
+        <v>54.641285</v>
       </c>
       <c r="O4">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="P4">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="Q4">
-        <v>102.9836253291761</v>
+        <v>118.8835294748111</v>
       </c>
       <c r="R4">
-        <v>102.9836253291761</v>
+        <v>1069.9517652733</v>
       </c>
       <c r="S4">
-        <v>0.05048337956325902</v>
+        <v>0.0354568029830633</v>
       </c>
       <c r="T4">
-        <v>0.05048337956325902</v>
+        <v>0.03545680298306331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.34742968064381</v>
+        <v>6.527126666666668</v>
       </c>
       <c r="H5">
-        <v>6.34742968064381</v>
+        <v>19.58138</v>
       </c>
       <c r="I5">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="J5">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.05585527767763</v>
+        <v>3.600318333333334</v>
       </c>
       <c r="N5">
-        <v>3.05585527767763</v>
+        <v>10.800955</v>
       </c>
       <c r="O5">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="P5">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="Q5">
-        <v>19.39682648928302</v>
+        <v>23.49973380198889</v>
       </c>
       <c r="R5">
-        <v>19.39682648928302</v>
+        <v>211.4976042179</v>
       </c>
       <c r="S5">
-        <v>0.009508476234461436</v>
+        <v>0.007008754158397492</v>
       </c>
       <c r="T5">
-        <v>0.009508476234461436</v>
+        <v>0.007008754158397492</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.7486637459409</v>
+        <v>10.77811266666667</v>
       </c>
       <c r="H6">
-        <v>10.7486637459409</v>
+        <v>32.334338</v>
       </c>
       <c r="I6">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="J6">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.1842207804032</v>
+        <v>85.89497033333333</v>
       </c>
       <c r="N6">
-        <v>47.1842207804032</v>
+        <v>257.684911</v>
       </c>
       <c r="O6">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="P6">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="Q6">
-        <v>507.1673232827912</v>
+        <v>925.7856677526576</v>
       </c>
       <c r="R6">
-        <v>507.1673232827912</v>
+        <v>8332.071009773919</v>
       </c>
       <c r="S6">
-        <v>0.248617393314018</v>
+        <v>0.2761139425373864</v>
       </c>
       <c r="T6">
-        <v>0.248617393314018</v>
+        <v>0.2761139425373864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.7486637459409</v>
+        <v>10.77811266666667</v>
       </c>
       <c r="H7">
-        <v>10.7486637459409</v>
+        <v>32.334338</v>
       </c>
       <c r="I7">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="J7">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.69952953201786</v>
+        <v>1.726772333333333</v>
       </c>
       <c r="N7">
-        <v>1.69952953201786</v>
+        <v>5.180317</v>
       </c>
       <c r="O7">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="P7">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="Q7">
-        <v>18.26767146595628</v>
+        <v>18.61134675834955</v>
       </c>
       <c r="R7">
-        <v>18.26767146595628</v>
+        <v>167.502120825146</v>
       </c>
       <c r="S7">
-        <v>0.008954955600028935</v>
+        <v>0.005550801344605877</v>
       </c>
       <c r="T7">
-        <v>0.008954955600028935</v>
+        <v>0.005550801344605877</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7486637459409</v>
+        <v>10.77811266666667</v>
       </c>
       <c r="H8">
-        <v>10.7486637459409</v>
+        <v>32.334338</v>
       </c>
       <c r="I8">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="J8">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.2244610039903</v>
+        <v>18.21376166666667</v>
       </c>
       <c r="N8">
-        <v>16.2244610039903</v>
+        <v>54.641285</v>
       </c>
       <c r="O8">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="P8">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="Q8">
-        <v>174.3912757910225</v>
+        <v>196.3099753271478</v>
       </c>
       <c r="R8">
-        <v>174.3912757910225</v>
+        <v>1766.78977794433</v>
       </c>
       <c r="S8">
-        <v>0.08548796898670613</v>
+        <v>0.0585491038963432</v>
       </c>
       <c r="T8">
-        <v>0.08548796898670613</v>
+        <v>0.05854910389634321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7486637459409</v>
+        <v>10.77811266666667</v>
       </c>
       <c r="H9">
-        <v>10.7486637459409</v>
+        <v>32.334338</v>
       </c>
       <c r="I9">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="J9">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.05585527767763</v>
+        <v>3.600318333333334</v>
       </c>
       <c r="N9">
-        <v>3.05585527767763</v>
+        <v>10.800955</v>
       </c>
       <c r="O9">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="P9">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="Q9">
-        <v>32.84636083601571</v>
+        <v>38.80463663253222</v>
       </c>
       <c r="R9">
-        <v>32.84636083601571</v>
+        <v>349.24172969279</v>
       </c>
       <c r="S9">
-        <v>0.01610154328958709</v>
+        <v>0.01157341443333054</v>
       </c>
       <c r="T9">
-        <v>0.01610154328958709</v>
+        <v>0.01157341443333054</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.14038630818428</v>
+        <v>6.559571333333333</v>
       </c>
       <c r="H10">
-        <v>6.14038630818428</v>
+        <v>19.678714</v>
       </c>
       <c r="I10">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885632</v>
       </c>
       <c r="J10">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885631</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.1842207804032</v>
+        <v>85.89497033333333</v>
       </c>
       <c r="N10">
-        <v>47.1842207804032</v>
+        <v>257.684911</v>
       </c>
       <c r="O10">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="P10">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="Q10">
-        <v>289.729343242332</v>
+        <v>563.4341850760504</v>
       </c>
       <c r="R10">
-        <v>289.729343242332</v>
+        <v>5070.907665684454</v>
       </c>
       <c r="S10">
-        <v>0.1420275928213278</v>
+        <v>0.1680432519325326</v>
       </c>
       <c r="T10">
-        <v>0.1420275928213278</v>
+        <v>0.1680432519325326</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.14038630818428</v>
+        <v>6.559571333333333</v>
       </c>
       <c r="H11">
-        <v>6.14038630818428</v>
+        <v>19.678714</v>
       </c>
       <c r="I11">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885632</v>
       </c>
       <c r="J11">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885631</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.69952953201786</v>
+        <v>1.726772333333333</v>
       </c>
       <c r="N11">
-        <v>1.69952953201786</v>
+        <v>5.180317</v>
       </c>
       <c r="O11">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="P11">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="Q11">
-        <v>10.4357678687573</v>
+        <v>11.32688629692644</v>
       </c>
       <c r="R11">
-        <v>10.4357678687573</v>
+        <v>101.941976672338</v>
       </c>
       <c r="S11">
-        <v>0.005115695127925174</v>
+        <v>0.003378223860074528</v>
       </c>
       <c r="T11">
-        <v>0.005115695127925174</v>
+        <v>0.003378223860074528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.14038630818428</v>
+        <v>6.559571333333333</v>
       </c>
       <c r="H12">
-        <v>6.14038630818428</v>
+        <v>19.678714</v>
       </c>
       <c r="I12">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885632</v>
       </c>
       <c r="J12">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885631</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.2244610039903</v>
+        <v>18.21376166666667</v>
       </c>
       <c r="N12">
-        <v>16.2244610039903</v>
+        <v>54.641285</v>
       </c>
       <c r="O12">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="P12">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="Q12">
-        <v>99.62445820657182</v>
+        <v>119.4744689008322</v>
       </c>
       <c r="R12">
-        <v>99.62445820657182</v>
+        <v>1075.27022010749</v>
       </c>
       <c r="S12">
-        <v>0.04883668953535603</v>
+        <v>0.03563304962459487</v>
       </c>
       <c r="T12">
-        <v>0.04883668953535603</v>
+        <v>0.03563304962459487</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.14038630818428</v>
+        <v>6.559571333333333</v>
       </c>
       <c r="H13">
-        <v>6.14038630818428</v>
+        <v>19.678714</v>
       </c>
       <c r="I13">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885632</v>
       </c>
       <c r="J13">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885631</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.05585527767763</v>
+        <v>3.600318333333334</v>
       </c>
       <c r="N13">
-        <v>3.05585527767763</v>
+        <v>10.800955</v>
       </c>
       <c r="O13">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="P13">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="Q13">
-        <v>18.76413190684439</v>
+        <v>23.61654493020778</v>
       </c>
       <c r="R13">
-        <v>18.76413190684439</v>
+        <v>212.54890437187</v>
       </c>
       <c r="S13">
-        <v>0.009198324395751424</v>
+        <v>0.007043592871361208</v>
       </c>
       <c r="T13">
-        <v>0.009198324395751424</v>
+        <v>0.007043592871361207</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.69059467763521</v>
+        <v>6.773344333333334</v>
       </c>
       <c r="H14">
-        <v>6.69059467763521</v>
+        <v>20.320033</v>
       </c>
       <c r="I14">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="J14">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.1842207804032</v>
+        <v>85.89497033333333</v>
       </c>
       <c r="N14">
-        <v>47.1842207804032</v>
+        <v>257.684911</v>
       </c>
       <c r="O14">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="P14">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="Q14">
-        <v>315.6904964217304</v>
+        <v>581.7962105691182</v>
       </c>
       <c r="R14">
-        <v>315.6904964217304</v>
+        <v>5236.165895122063</v>
       </c>
       <c r="S14">
-        <v>0.154753953402112</v>
+        <v>0.1735196936495127</v>
       </c>
       <c r="T14">
-        <v>0.154753953402112</v>
+        <v>0.1735196936495126</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.69059467763521</v>
+        <v>6.773344333333334</v>
       </c>
       <c r="H15">
-        <v>6.69059467763521</v>
+        <v>20.320033</v>
       </c>
       <c r="I15">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="J15">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.69952953201786</v>
+        <v>1.726772333333333</v>
       </c>
       <c r="N15">
-        <v>1.69952953201786</v>
+        <v>5.180317</v>
       </c>
       <c r="O15">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="P15">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="Q15">
-        <v>11.37086324140255</v>
+        <v>11.69602359894011</v>
       </c>
       <c r="R15">
-        <v>11.37086324140255</v>
+        <v>105.264212390461</v>
       </c>
       <c r="S15">
-        <v>0.00557408620198385</v>
+        <v>0.003488318409328059</v>
       </c>
       <c r="T15">
-        <v>0.00557408620198385</v>
+        <v>0.003488318409328058</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.69059467763521</v>
+        <v>6.773344333333334</v>
       </c>
       <c r="H16">
-        <v>6.69059467763521</v>
+        <v>20.320033</v>
       </c>
       <c r="I16">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="J16">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.2244610039903</v>
+        <v>18.21376166666667</v>
       </c>
       <c r="N16">
-        <v>16.2244610039903</v>
+        <v>54.641285</v>
       </c>
       <c r="O16">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="P16">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="Q16">
-        <v>108.5512924407975</v>
+        <v>123.3680793736006</v>
       </c>
       <c r="R16">
-        <v>108.5512924407975</v>
+        <v>1110.312714362405</v>
       </c>
       <c r="S16">
-        <v>0.05321269357972944</v>
+        <v>0.0367943120806779</v>
       </c>
       <c r="T16">
-        <v>0.05321269357972944</v>
+        <v>0.0367943120806779</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.69059467763521</v>
+        <v>6.773344333333334</v>
       </c>
       <c r="H17">
-        <v>6.69059467763521</v>
+        <v>20.320033</v>
       </c>
       <c r="I17">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="J17">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.05585527767763</v>
+        <v>3.600318333333334</v>
       </c>
       <c r="N17">
-        <v>3.05585527767763</v>
+        <v>10.800955</v>
       </c>
       <c r="O17">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="P17">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="Q17">
-        <v>20.44548905645342</v>
+        <v>24.38619578127945</v>
       </c>
       <c r="R17">
-        <v>20.44548905645342</v>
+        <v>219.475762031515</v>
       </c>
       <c r="S17">
-        <v>0.01002253883657928</v>
+        <v>0.007273139880208866</v>
       </c>
       <c r="T17">
-        <v>0.01002253883657928</v>
+        <v>0.007273139880208865</v>
       </c>
     </row>
   </sheetData>
